--- a/data/trans_orig/P36BPD12_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>161375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140097</v>
+        <v>138750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187931</v>
+        <v>184463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3235661444933877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2809024424464616</v>
+        <v>0.2782008208704924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3768113939693416</v>
+        <v>0.3698595875608779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>364</v>
@@ -762,19 +762,19 @@
         <v>255726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>233280</v>
+        <v>235368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>279272</v>
+        <v>278201</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.410932083516948</v>
+        <v>0.4109320835169479</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3748631323133246</v>
+        <v>0.378218665631733</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4487691087814092</v>
+        <v>0.4470485333398914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>514</v>
@@ -783,19 +783,19 @@
         <v>417101</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>388259</v>
+        <v>387669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>449121</v>
+        <v>449600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3720640609790659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3463360255273249</v>
+        <v>0.3458096359401513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4006264256310185</v>
+        <v>0.4010543484298391</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>224180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201691</v>
+        <v>199909</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249749</v>
+        <v>247083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4494937269184147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4044014906122829</v>
+        <v>0.4008283010574462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.500760089711044</v>
+        <v>0.4954162314490124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>338</v>
@@ -833,19 +833,19 @@
         <v>248289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226067</v>
+        <v>226617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269942</v>
+        <v>271727</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3989827727995787</v>
+        <v>0.3989827727995786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3632731398617692</v>
+        <v>0.3641561692503616</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4337766059197761</v>
+        <v>0.4366453940957102</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>548</v>
@@ -854,19 +854,19 @@
         <v>472470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>438797</v>
+        <v>441143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>503823</v>
+        <v>505306</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4214544697222364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3914174206011864</v>
+        <v>0.3935100704781523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4494224776128589</v>
+        <v>0.4507455380163056</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>113184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>92953</v>
+        <v>92131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135682</v>
+        <v>136243</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2269401285881976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1863760912619209</v>
+        <v>0.184728296284527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2720508006854703</v>
+        <v>0.273175341707388</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>158</v>
@@ -904,19 +904,19 @@
         <v>118291</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102037</v>
+        <v>99947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>138413</v>
+        <v>138575</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1900851436834733</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1639661416679086</v>
+        <v>0.160607118983253</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2224189120874051</v>
+        <v>0.2226801606570383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -925,19 +925,19 @@
         <v>231475</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>202355</v>
+        <v>202756</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>258084</v>
+        <v>261003</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2064814692986976</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.180505803547013</v>
+        <v>0.1808628223283042</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2302173473757578</v>
+        <v>0.2328212748577229</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>245844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>219334</v>
+        <v>216784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>276474</v>
+        <v>276776</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2566580911602186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2289820122911589</v>
+        <v>0.2263199654761339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2886361473180112</v>
+        <v>0.2889508592074181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -1050,19 +1050,19 @@
         <v>376644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351527</v>
+        <v>349935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405750</v>
+        <v>405823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3378947832945484</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3153619250242606</v>
+        <v>0.3139335174254953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3640063606173319</v>
+        <v>0.3640713101862049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>833</v>
@@ -1071,19 +1071,19 @@
         <v>622488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>582014</v>
+        <v>584729</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>659990</v>
+        <v>666569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3003497518913641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2808210558875725</v>
+        <v>0.2821309936287958</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3184445341267083</v>
+        <v>0.3216187781537531</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>527598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>491549</v>
+        <v>493852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>558810</v>
+        <v>561388</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5508067780307128</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5131724033220225</v>
+        <v>0.515576043276</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5833917871427133</v>
+        <v>0.5860833227872739</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>792</v>
@@ -1121,19 +1121,19 @@
         <v>560311</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>529646</v>
+        <v>533671</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>588087</v>
+        <v>589680</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.50266602487557</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4751553299336665</v>
+        <v>0.4787663622598335</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5275843123249329</v>
+        <v>0.5290133235194291</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1275</v>
@@ -1142,19 +1142,19 @@
         <v>1087909</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1042839</v>
+        <v>1040532</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1132948</v>
+        <v>1130913</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.5249151593675808</v>
+        <v>0.5249151593675809</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5031688753573023</v>
+        <v>0.502055459473821</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5466463154820064</v>
+        <v>0.5456646024132854</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>184422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158457</v>
+        <v>157352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215957</v>
+        <v>213223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1925351308090685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1654276957677575</v>
+        <v>0.1642739275104861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2254570845255306</v>
+        <v>0.2226025148812019</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>235</v>
@@ -1192,19 +1192,19 @@
         <v>177724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157427</v>
+        <v>156686</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201163</v>
+        <v>200495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1594391918298816</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1412304123281578</v>
+        <v>0.1405660515251887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.180467506933279</v>
+        <v>0.1798676650255078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>405</v>
@@ -1213,19 +1213,19 @@
         <v>362146</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>328661</v>
+        <v>325674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400070</v>
+        <v>397417</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1747350887410551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1585788143570722</v>
+        <v>0.1571376164894881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1930332581266175</v>
+        <v>0.1917534006758599</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>333263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>301443</v>
+        <v>304636</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>366553</v>
+        <v>368988</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3189637718208469</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.28850926897689</v>
+        <v>0.2915650780229015</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3508256816570197</v>
+        <v>0.3531559103288797</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>602</v>
@@ -1338,19 +1338,19 @@
         <v>406324</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>381587</v>
+        <v>378431</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>436828</v>
+        <v>433718</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3882378605850698</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3646023118423539</v>
+        <v>0.361587214231806</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4173844821993215</v>
+        <v>0.4144130241446934</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>938</v>
@@ -1359,19 +1359,19 @@
         <v>739586</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>698117</v>
+        <v>697931</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>787756</v>
+        <v>778257</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3536298723459211</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3338014921952667</v>
+        <v>0.3337123057121494</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3766619127769804</v>
+        <v>0.3721198361561811</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>481034</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>444185</v>
+        <v>446478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>516784</v>
+        <v>519153</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4603942914324369</v>
+        <v>0.4603942914324368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4251265562132499</v>
+        <v>0.4273213854750781</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4946109391002073</v>
+        <v>0.4968777228238126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>648</v>
@@ -1409,19 +1409,19 @@
         <v>447461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>420410</v>
+        <v>422448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>477895</v>
+        <v>478228</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4275441168793607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4016971791492043</v>
+        <v>0.4036450206086388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4566238398816062</v>
+        <v>0.4569416109117899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1135</v>
@@ -1430,19 +1430,19 @@
         <v>928495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>880902</v>
+        <v>885377</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>976096</v>
+        <v>972801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4439554255644342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4211991313342268</v>
+        <v>0.4233391227517028</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4667160577360644</v>
+        <v>0.4651405561326117</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>230533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>204059</v>
+        <v>201964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>265142</v>
+        <v>261957</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2206419367467162</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1953040101296081</v>
+        <v>0.1932986260576326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2537655905358995</v>
+        <v>0.2507170405912117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -1480,19 +1480,19 @@
         <v>192800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171251</v>
+        <v>171389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216146</v>
+        <v>216396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1842180225355696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1636286581032827</v>
+        <v>0.1637600199015807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2065255282611733</v>
+        <v>0.2067636534390599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>468</v>
@@ -1501,19 +1501,19 @@
         <v>423333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>383875</v>
+        <v>387773</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>464056</v>
+        <v>465741</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2024147020896448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1835478782480702</v>
+        <v>0.1854116996332285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.221886223982836</v>
+        <v>0.2226919585252718</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>388460</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>357188</v>
+        <v>355486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>426568</v>
+        <v>426671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3988255345799396</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3667186382852003</v>
+        <v>0.3649707458250778</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.43794995057193</v>
+        <v>0.4380552926111491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>485</v>
@@ -1626,19 +1626,19 @@
         <v>353084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>329109</v>
+        <v>324091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>381355</v>
+        <v>379555</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3890677285847186</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3626494561625991</v>
+        <v>0.357120257193937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4202196625554114</v>
+        <v>0.4182360922380147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>850</v>
@@ -1647,19 +1647,19 @@
         <v>741544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>700200</v>
+        <v>700634</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>786005</v>
+        <v>784358</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3941190645594468</v>
+        <v>0.3941190645594469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3721451082007655</v>
+        <v>0.3723761860841741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4177495573587161</v>
+        <v>0.416873962503793</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>358690</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>320768</v>
+        <v>327610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>391816</v>
+        <v>392816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3682612027156494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3293270778627436</v>
+        <v>0.3363512788629111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4022704315573636</v>
+        <v>0.403296837845358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>541</v>
@@ -1697,19 +1697,19 @@
         <v>335023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>308557</v>
+        <v>307787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359812</v>
+        <v>361864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3691658772464997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3400028702300819</v>
+        <v>0.3391540022337731</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3964817497184776</v>
+        <v>0.3987420830250863</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>920</v>
@@ -1718,19 +1718,19 @@
         <v>693713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>654066</v>
+        <v>651452</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>733543</v>
+        <v>734025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3686975532190141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3476256094452191</v>
+        <v>0.3462363974867629</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3898666875837847</v>
+        <v>0.3901227522221902</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>226860</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197208</v>
+        <v>195815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>259201</v>
+        <v>260224</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.232913262704411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.202469528097978</v>
+        <v>0.2010396879046757</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2661172218608965</v>
+        <v>0.2671671175251733</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>293</v>
@@ -1768,19 +1768,19 @@
         <v>219406</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>196576</v>
+        <v>196158</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243885</v>
+        <v>245961</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2417663941687818</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2166098396599741</v>
+        <v>0.2161492717750193</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2687397910688445</v>
+        <v>0.2710279466900977</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>493</v>
@@ -1789,19 +1789,19 @@
         <v>446266</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>411559</v>
+        <v>412235</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>487161</v>
+        <v>492575</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.237183382221539</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2187371836912377</v>
+        <v>0.2190962084243744</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2589182091466746</v>
+        <v>0.2617958394139347</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>1128942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1071413</v>
+        <v>1062754</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1193539</v>
+        <v>1187867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3248338808492769</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3082809704702271</v>
+        <v>0.3057895189907052</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3434205716327811</v>
+        <v>0.3417886407729023</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2029</v>
@@ -1914,19 +1914,19 @@
         <v>1391777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1337732</v>
+        <v>1338937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1445063</v>
+        <v>1441776</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3770648525052777</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3624226798289658</v>
+        <v>0.3627492785606893</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3915011271234359</v>
+        <v>0.3906106518948299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3135</v>
@@ -1935,19 +1935,19 @@
         <v>2520719</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2439176</v>
+        <v>2441021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2605339</v>
+        <v>2600319</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3517351747095451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3403568154468541</v>
+        <v>0.3406142434533662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3635427529597444</v>
+        <v>0.3628423927094442</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1591502</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1525957</v>
+        <v>1531025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1657053</v>
+        <v>1651266</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4579277574073271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4390681815610996</v>
+        <v>0.4405264083666344</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.476788953241918</v>
+        <v>0.4751236339585814</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2319</v>
@@ -1985,19 +1985,19 @@
         <v>1591084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1531084</v>
+        <v>1535168</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1639892</v>
+        <v>1646437</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4310617600778738</v>
+        <v>0.4310617600778739</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4148063975857545</v>
+        <v>0.415912666211522</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4442848969968059</v>
+        <v>0.4460580330540184</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3878</v>
@@ -2006,19 +2006,19 @@
         <v>3182587</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3095434</v>
+        <v>3096007</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3267731</v>
+        <v>3266741</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4440905633805954</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4319294897375197</v>
+        <v>0.4320094356887865</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4559714688218954</v>
+        <v>0.4558332180274773</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>755000</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>702413</v>
+        <v>703689</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>810852</v>
+        <v>807118</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2172383617433961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2021074097056566</v>
+        <v>0.202474446458303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2333088874963464</v>
+        <v>0.2322345764087672</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>950</v>
@@ -2056,19 +2056,19 @@
         <v>708220</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>668490</v>
+        <v>662779</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>756111</v>
+        <v>751577</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1918733874168485</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1811095629437132</v>
+        <v>0.1795622695547654</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2048479502072959</v>
+        <v>0.2036197543422017</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1619</v>
@@ -2077,19 +2077,19 @@
         <v>1463220</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1397920</v>
+        <v>1392510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1536673</v>
+        <v>1534196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2041742619098595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1950624034495766</v>
+        <v>0.1943075754324026</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2144237436504091</v>
+        <v>0.2140780756641107</v>
       </c>
     </row>
     <row r="23">
